--- a/BackTest/2019-10-21 BackTest BCH.xlsx
+++ b/BackTest/2019-10-21 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -845,11 +845,9 @@
         <v>527.8996999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>263300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>260700</v>
       </c>
@@ -886,11 +884,9 @@
         <v>527.8996999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>263400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>260700</v>
       </c>
@@ -927,11 +923,9 @@
         <v>525.7738999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>263400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>260700</v>
       </c>
@@ -968,11 +962,9 @@
         <v>678.7520999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>263300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>260700</v>
       </c>
@@ -1009,11 +1001,9 @@
         <v>915.2358999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>263600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>260700</v>
       </c>
@@ -1167,11 +1157,9 @@
         <v>1271.1666</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>264700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>260700</v>
       </c>
@@ -1247,11 +1235,9 @@
         <v>1189.3017</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>265400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>260700</v>
       </c>
@@ -1405,11 +1391,9 @@
         <v>1212.5206</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>265500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>260700</v>
       </c>
@@ -1485,11 +1469,9 @@
         <v>1212.5206</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>265100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>260700</v>
       </c>
@@ -2267,11 +2249,9 @@
         <v>974.2175047099997</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>264500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>260700</v>
       </c>
@@ -2386,11 +2366,9 @@
         <v>941.5945047099997</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>264000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>260700</v>
       </c>
@@ -2427,11 +2405,9 @@
         <v>942.6883047099997</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>264100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>260700</v>
       </c>
@@ -2468,11 +2444,9 @@
         <v>942.2157047099996</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>264500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>260700</v>
       </c>
@@ -2509,11 +2483,9 @@
         <v>1164.12170471</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>264300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>260700</v>
       </c>
@@ -28641,7 +28613,7 @@
         <v>2266.119944160001</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
@@ -28649,11 +28621,11 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L724" t="n">
-        <v>1</v>
+        <v>1.028755274261604</v>
       </c>
       <c r="M724" t="inlineStr"/>
     </row>
@@ -28680,17 +28652,11 @@
         <v>2592.372844160001</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -28719,17 +28685,11 @@
         <v>2911.456344160001</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -28758,17 +28718,11 @@
         <v>2734.655044160001</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -28797,17 +28751,11 @@
         <v>2734.655044160001</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -28836,17 +28784,11 @@
         <v>2664.031444160001</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -28875,17 +28817,11 @@
         <v>2901.383044160001</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -28914,17 +28850,11 @@
         <v>2954.472944160001</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -28953,17 +28883,11 @@
         <v>3078.397436330001</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -28992,17 +28916,11 @@
         <v>3086.797636330001</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -29031,17 +28949,11 @@
         <v>3171.352536330001</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -29070,17 +28982,11 @@
         <v>3171.352536330001</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -29109,17 +29015,11 @@
         <v>3150.732236330001</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -29148,17 +29048,11 @@
         <v>3219.974736330001</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -29190,14 +29084,8 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -29229,14 +29117,8 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -29268,14 +29150,8 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -29304,17 +29180,11 @@
         <v>3111.411636330001</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -29343,17 +29213,11 @@
         <v>3025.861736330001</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -29382,17 +29246,11 @@
         <v>3052.775136330001</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -29421,17 +29279,11 @@
         <v>2977.347436330001</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -29460,17 +29312,11 @@
         <v>3033.108936330001</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -29499,17 +29345,11 @@
         <v>3033.108936330001</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -29538,17 +29378,11 @@
         <v>3192.29903633</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -29577,17 +29411,11 @@
         <v>3532.77363633</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -29616,17 +29444,11 @@
         <v>4112.047436330001</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -29655,17 +29477,11 @@
         <v>3833.982013920001</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -29694,17 +29510,11 @@
         <v>3545.115402760001</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -29736,14 +29546,8 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -29775,14 +29579,8 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -29814,14 +29612,8 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -29853,14 +29645,8 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -29892,14 +29678,8 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -29931,14 +29711,8 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -29970,14 +29744,8 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -30009,14 +29777,8 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -30048,14 +29810,8 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -30087,14 +29843,8 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -30126,14 +29876,8 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -30165,14 +29909,8 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -30204,14 +29942,8 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -30243,14 +29975,8 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -30282,14 +30008,8 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -30318,19 +30038,13 @@
         <v>3209.09990646</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>260700</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
-        <v>1.046016494054469</v>
+        <v>1</v>
       </c>
       <c r="M767" t="inlineStr"/>
     </row>
@@ -30357,7 +30071,7 @@
         <v>3155.538832239999</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -30390,7 +30104,7 @@
         <v>3230.210032239999</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -30423,7 +30137,7 @@
         <v>3230.210032239999</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -30456,7 +30170,7 @@
         <v>3267.060132239999</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -30489,7 +30203,7 @@
         <v>3266.543732239999</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -30522,7 +30236,7 @@
         <v>3237.294132239999</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -30555,7 +30269,7 @@
         <v>3258.290732239999</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -30588,7 +30302,7 @@
         <v>3276.249732239999</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -30621,7 +30335,7 @@
         <v>3276.249732239999</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -30654,7 +30368,7 @@
         <v>3212.327532239999</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -30687,7 +30401,7 @@
         <v>3245.166132239999</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -30720,7 +30434,7 @@
         <v>3241.914832239999</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -30753,7 +30467,7 @@
         <v>3261.476732239999</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -30786,7 +30500,7 @@
         <v>3259.476732239999</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -30819,7 +30533,7 @@
         <v>3279.476732239999</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -30852,7 +30566,7 @@
         <v>3279.476732239999</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -31380,7 +31094,7 @@
         <v>2965.53596259</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -31413,7 +31127,7 @@
         <v>2933.72686259</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -31446,7 +31160,7 @@
         <v>2972.47916259</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -31479,7 +31193,7 @@
         <v>2972.48916259</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -31512,7 +31226,7 @@
         <v>2978.752462590001</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -31545,7 +31259,7 @@
         <v>2950.50486259</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -31578,7 +31292,7 @@
         <v>2953.815681900001</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -31611,7 +31325,7 @@
         <v>2922.7555819</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -31644,7 +31358,7 @@
         <v>2920.9600819</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -31677,7 +31391,7 @@
         <v>2929.3773819</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -31710,7 +31424,7 @@
         <v>2954.3119819</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -31743,7 +31457,7 @@
         <v>2954.3119819</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -31776,7 +31490,7 @@
         <v>2954.3119819</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -31809,7 +31523,7 @@
         <v>2954.3119819</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -31842,7 +31556,7 @@
         <v>2954.3119819</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -31875,7 +31589,7 @@
         <v>2954.3119819</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -31908,7 +31622,7 @@
         <v>2954.3119819</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -31941,7 +31655,7 @@
         <v>2910.1316819</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -31974,7 +31688,7 @@
         <v>2910.1327819</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -32007,7 +31721,7 @@
         <v>2885.7477819</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -32040,7 +31754,7 @@
         <v>2883.0756819</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -32073,7 +31787,7 @@
         <v>2883.085681900001</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -32106,7 +31820,7 @@
         <v>2907.4864819</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -32139,7 +31853,7 @@
         <v>2930.16157536</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -32172,7 +31886,7 @@
         <v>2940.16157536</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -32205,7 +31919,7 @@
         <v>2940.76157536</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -32238,7 +31952,7 @@
         <v>2940.29907536</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -32271,7 +31985,7 @@
         <v>2940.29907536</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -32304,7 +32018,7 @@
         <v>2978.70087536</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -32337,7 +32051,7 @@
         <v>2983.92307536</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -32403,7 +32117,7 @@
         <v>3061.670675360001</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -32469,7 +32183,7 @@
         <v>3036.931475360001</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -32601,7 +32315,7 @@
         <v>3056.983589550001</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -32634,7 +32348,7 @@
         <v>3055.026189550001</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -32667,7 +32381,7 @@
         <v>3055.210089550001</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -32700,7 +32414,7 @@
         <v>3040.210089550001</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -32733,7 +32447,7 @@
         <v>3020.210089550001</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -32766,7 +32480,7 @@
         <v>3020.174689550001</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -32799,7 +32513,7 @@
         <v>2988.592989550001</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -32832,7 +32546,7 @@
         <v>2989.496289550001</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -32865,7 +32579,7 @@
         <v>2995.552489550001</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -32898,7 +32612,7 @@
         <v>2987.368589550001</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -32931,7 +32645,7 @@
         <v>2993.23808955</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -32964,7 +32678,7 @@
         <v>2989.168189550001</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -32997,7 +32711,7 @@
         <v>2989.168189550001</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -33030,7 +32744,7 @@
         <v>2932.27268955</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -33063,7 +32777,7 @@
         <v>2932.27268955</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -33096,7 +32810,7 @@
         <v>2966.07878955</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -33129,7 +32843,7 @@
         <v>2961.36898955</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -33162,7 +32876,7 @@
         <v>2958.44188955</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -33195,7 +32909,7 @@
         <v>2963.09528955</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -33228,7 +32942,7 @@
         <v>2960.33778955</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -33261,7 +32975,7 @@
         <v>2960.33778955</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -33294,7 +33008,7 @@
         <v>2952.98878955</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -33327,7 +33041,7 @@
         <v>2936.30358955</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -33360,7 +33074,7 @@
         <v>2907.79778955</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -33393,7 +33107,7 @@
         <v>2909.32668955</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -33426,7 +33140,7 @@
         <v>2912.31918955</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -33459,7 +33173,7 @@
         <v>2916.48618955</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -33492,7 +33206,7 @@
         <v>2905.78698955</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -33525,7 +33239,7 @@
         <v>2905.78698955</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -33558,7 +33272,7 @@
         <v>2898.45388955</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -33591,7 +33305,7 @@
         <v>2937.75258955</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -33624,7 +33338,7 @@
         <v>2936.02158955</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -33657,7 +33371,7 @@
         <v>2941.61038955</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -33690,7 +33404,7 @@
         <v>2941.56478955</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -33723,7 +33437,7 @@
         <v>2941.56478955</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -33756,7 +33470,7 @@
         <v>2944.23648955</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -33789,7 +33503,7 @@
         <v>2929.11448955</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -33822,7 +33536,7 @@
         <v>2929.40108955</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -33855,7 +33569,7 @@
         <v>2929.40108955</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -33888,7 +33602,7 @@
         <v>2909.740489549999</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -33921,7 +33635,7 @@
         <v>2919.740489549999</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -33954,7 +33668,7 @@
         <v>2919.740489549999</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -33987,7 +33701,7 @@
         <v>2919.656789549999</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -34020,7 +33734,7 @@
         <v>2919.656789549999</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -34053,7 +33767,7 @@
         <v>2919.656789549999</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -34086,7 +33800,7 @@
         <v>2919.656789549999</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -34119,7 +33833,7 @@
         <v>2916.593289549999</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -34152,7 +33866,7 @@
         <v>2945.511589549999</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -34185,7 +33899,7 @@
         <v>3042.656989549999</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -34218,7 +33932,7 @@
         <v>3045.656989549999</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -34251,7 +33965,7 @@
         <v>3045.651589549999</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -34284,7 +33998,7 @@
         <v>3015.425289549999</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -34317,7 +34031,7 @@
         <v>3019.008289549999</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -34350,7 +34064,7 @@
         <v>3019.008289549999</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -34383,7 +34097,7 @@
         <v>3015.020389549999</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -34416,7 +34130,7 @@
         <v>3014.860789549999</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -34449,7 +34163,7 @@
         <v>3014.860789549999</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -34482,7 +34196,7 @@
         <v>3014.860789549999</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -34515,7 +34229,7 @@
         <v>2941.195289549999</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -34548,7 +34262,7 @@
         <v>2945.463989549999</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -34581,7 +34295,7 @@
         <v>2939.513989549999</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -34614,7 +34328,7 @@
         <v>2939.513989549999</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -34647,7 +34361,7 @@
         <v>2935.462489549999</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -34680,7 +34394,7 @@
         <v>3060.566989549999</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -34713,7 +34427,7 @@
         <v>3060.566989549999</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -34746,7 +34460,7 @@
         <v>3045.177389549999</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -34779,7 +34493,7 @@
         <v>3041.812889549999</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -34812,7 +34526,7 @@
         <v>3049.534489549999</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -34845,7 +34559,7 @@
         <v>3047.534489549999</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -34878,7 +34592,7 @@
         <v>3092.212289549999</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -34911,7 +34625,7 @@
         <v>3113.327289549999</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -34944,7 +34658,7 @@
         <v>3090.529589549998</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -35076,7 +34790,7 @@
         <v>3163.293889549999</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -35109,7 +34823,7 @@
         <v>3142.799589549999</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -35142,7 +34856,7 @@
         <v>3051.969289549999</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -35175,7 +34889,7 @@
         <v>3069.869489549999</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -35208,7 +34922,7 @@
         <v>3069.889489549999</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -35241,7 +34955,7 @@
         <v>3069.889489549999</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -35285,6 +34999,6 @@
       <c r="M917" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest BCH.xlsx
+++ b/BackTest/2019-10-21 BackTest BCH.xlsx
@@ -884,9 +884,11 @@
         <v>527.8996999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>263400</v>
+      </c>
       <c r="J13" t="n">
         <v>260700</v>
       </c>
@@ -28613,7 +28615,7 @@
         <v>2266.119944160001</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
@@ -28621,11 +28623,11 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L724" t="n">
-        <v>1.028755274261604</v>
+        <v>1</v>
       </c>
       <c r="M724" t="inlineStr"/>
     </row>
@@ -28652,11 +28654,17 @@
         <v>2592.372844160001</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -28685,11 +28693,17 @@
         <v>2911.456344160001</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -28718,11 +28732,17 @@
         <v>2734.655044160001</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -28751,11 +28771,17 @@
         <v>2734.655044160001</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -28784,11 +28810,17 @@
         <v>2664.031444160001</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -28817,11 +28849,17 @@
         <v>2901.383044160001</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -28850,11 +28888,17 @@
         <v>2954.472944160001</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -28883,11 +28927,17 @@
         <v>3078.397436330001</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -28916,11 +28966,17 @@
         <v>3086.797636330001</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -28949,11 +29005,17 @@
         <v>3171.352536330001</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -28982,11 +29044,17 @@
         <v>3171.352536330001</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -29015,11 +29083,17 @@
         <v>3150.732236330001</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -29048,11 +29122,17 @@
         <v>3219.974736330001</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -29084,8 +29164,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -29117,8 +29203,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -29150,8 +29242,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -29180,11 +29278,17 @@
         <v>3111.411636330001</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -29213,11 +29317,17 @@
         <v>3025.861736330001</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -29246,11 +29356,17 @@
         <v>3052.775136330001</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -29279,11 +29395,17 @@
         <v>2977.347436330001</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -29312,11 +29434,17 @@
         <v>3033.108936330001</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -29345,11 +29473,17 @@
         <v>3033.108936330001</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -29378,11 +29512,17 @@
         <v>3192.29903633</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -29411,11 +29551,17 @@
         <v>3532.77363633</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -29444,11 +29590,17 @@
         <v>4112.047436330001</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -29477,11 +29629,17 @@
         <v>3833.982013920001</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -29510,11 +29668,17 @@
         <v>3545.115402760001</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -29546,8 +29710,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -29579,8 +29749,14 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -29609,15 +29785,23 @@
         <v>3902.612702760001</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>260700</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L754" t="n">
-        <v>1</v>
-      </c>
-      <c r="M754" t="inlineStr"/>
+        <v>1.050235903337169</v>
+      </c>
+      <c r="M754" t="n">
+        <v>1.006923076923077</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="1" t="n">
@@ -29642,7 +29826,7 @@
         <v>3926.65360276</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -29675,7 +29859,7 @@
         <v>3797.06560276</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -29708,7 +29892,7 @@
         <v>3826.69410646</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -29741,7 +29925,7 @@
         <v>3843.62850646</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -29774,7 +29958,7 @@
         <v>3918.72150646</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -29807,7 +29991,7 @@
         <v>3937.94430646</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -29840,7 +30024,7 @@
         <v>3763.40510646</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -29873,7 +30057,7 @@
         <v>3979.95140646</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -29906,7 +30090,7 @@
         <v>3673.81590646</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -29939,7 +30123,7 @@
         <v>3608.26960646</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -29972,7 +30156,7 @@
         <v>3496.58430646</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -30005,7 +30189,7 @@
         <v>3363.80930646</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -30038,7 +30222,7 @@
         <v>3209.09990646</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -30071,7 +30255,7 @@
         <v>3155.538832239999</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -30137,7 +30321,7 @@
         <v>3230.210032239999</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -30170,7 +30354,7 @@
         <v>3267.060132239999</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -30203,7 +30387,7 @@
         <v>3266.543732239999</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -30236,7 +30420,7 @@
         <v>3237.294132239999</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -30269,7 +30453,7 @@
         <v>3258.290732239999</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -30302,7 +30486,7 @@
         <v>3276.249732239999</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -30335,7 +30519,7 @@
         <v>3276.249732239999</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -30368,7 +30552,7 @@
         <v>3212.327532239999</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -30401,7 +30585,7 @@
         <v>3245.166132239999</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -30434,7 +30618,7 @@
         <v>3241.914832239999</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -30467,7 +30651,7 @@
         <v>3261.476732239999</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -30500,7 +30684,7 @@
         <v>3259.476732239999</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -30533,7 +30717,7 @@
         <v>3279.476732239999</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -30566,7 +30750,7 @@
         <v>3279.476732239999</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -30599,7 +30783,7 @@
         <v>3264.88353224</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -30632,7 +30816,7 @@
         <v>3293.18523224</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -30665,7 +30849,7 @@
         <v>3319.03233224</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -30698,7 +30882,7 @@
         <v>3319.03233224</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -30731,7 +30915,7 @@
         <v>3319.03233224</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -30764,7 +30948,7 @@
         <v>3343.87343224</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -30797,7 +30981,7 @@
         <v>3340.04053224</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -30830,7 +31014,7 @@
         <v>3340.18656989</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -30863,7 +31047,7 @@
         <v>3313.18656989</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -30896,7 +31080,7 @@
         <v>3306.97056989</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -30929,7 +31113,7 @@
         <v>3282.46976989</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -30962,7 +31146,7 @@
         <v>3336.70406989</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -30995,7 +31179,7 @@
         <v>3230.93876989</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -31028,7 +31212,7 @@
         <v>3230.94876259</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -31061,7 +31245,7 @@
         <v>3195.36016259</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
